--- a/app/algorithm/data.xlsx
+++ b/app/algorithm/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Chatbot\app\algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{381D6B12-874A-4320-B071-D3EC18FBE809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFA62FE-D554-463A-B4AD-A3662BBFE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="11520" yWindow="852" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>message</t>
   </si>
@@ -46,6 +46,42 @@
   </si>
   <si>
     <t>greetings</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Good Morning</t>
+  </si>
+  <si>
+    <t>Good Afternoon</t>
+  </si>
+  <si>
+    <t>Nice to meet you</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Heyo</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>Is anyone there?</t>
+  </si>
+  <si>
+    <t>See you later</t>
   </si>
 </sst>
 </file>
@@ -397,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +461,104 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/algorithm/data.xlsx
+++ b/app/algorithm/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Chatbot\app\algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFA62FE-D554-463A-B4AD-A3662BBFE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E8848-71AB-4A04-9968-6AD9CBC72249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="852" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
